--- a/biology/Biologie cellulaire et moléculaire/HCRTR2/HCRTR2.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/HCRTR2/HCRTR2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'HCRTR2 (pour « hypocretin receptor type 2 ») est un récepteur couplé aux protéines G, fixant les orexines (ou hypocrétines). Son gène est HCRTR2 situé sur le chromosome 6 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est exprimé dans l'hypothalamus[5] mais aussi dans d'autres organes comme l'estomac[6] ou les surrénales[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est exprimé dans l'hypothalamus mais aussi dans d'autres organes comme l'estomac ou les surrénales.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mutation du gène provoque, chez le chien, une forme de narcolepsie[8]. Cela a permis de développer plusieurs molécules, dont le suvorexant, ciblant ce récepteur et agissant dans les troubles du sommeil[9].
-Une autre mutation de ce gène est corrélé avec une évolution plus péjorative en cas d'insuffisance cardiaque sévère[10]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mutation du gène provoque, chez le chien, une forme de narcolepsie. Cela a permis de développer plusieurs molécules, dont le suvorexant, ciblant ce récepteur et agissant dans les troubles du sommeil.
+Une autre mutation de ce gène est corrélé avec une évolution plus péjorative en cas d'insuffisance cardiaque sévère. 
  Portail de la médecine   Portail de la biologie cellulaire et moléculaire                    </t>
         </is>
       </c>
